--- a/data/financial_time_series_data/financial_time_series_calibrations/cocoa-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/cocoa-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.12350933266952925, -0.0019996741602564825, -0.027247136833886385, -0.03740874834780582, -0.03485124702706147, 0.12898895746400207, 0.2845154894229339, 0.10401253788057857, -0.04236388821907663, -0.05200354855206878, -0.05167376189245403, -0.05075411877551777, 0.11139646384436155, 0.295150155999447, 0.13015418192583167, -0.0449100748037311, -0.048211075585201844, -0.03759958604922038, -0.05003105201586204]</t>
+    <t>[1.0, 0.1270677489023847, 0.01407320227541774, -0.023583423280028208, -0.03636233709291518, -0.020132132697509554, 0.13986758518615522, 0.2915726296741107, 0.11542258786841034, -0.03159626894232302, -0.04933331304323421, -0.04498490370191792, -0.035431340685390195, 0.12054742383987721, 0.31181244923280466, 0.14600027665712023, -0.027766217636002833, -0.04130700090871212, -0.03165066948884511, -0.03745504300189301]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.12335983014040376, 0.0046710234402874175, -0.019578099395861213, -0.030476909060958287, -0.028049706910161516, 0.1288551115260197, 0.2741525346937761, 0.10316741324980899, -0.03563716911891059, -0.045572473894722125, -0.04615956409304424, -0.043682019536797616, 0.11096536459796523, 0.2864489612121074, 0.12809405797021875, -0.03704615297739594, -0.04344120911965304, -0.031877946376327335, -0.04343956069995281]</t>
+    <t>[1.0, 0.12764014829306458, 0.0231214840959658, -0.010963854123795289, -0.02507313930357516, -0.010162847849390217, 0.13934593352797273, 0.2785789244035398, 0.11529419977662246, -0.021699438177475838, -0.039085182332946944, -0.03588302392920051, -0.02594247419991514, 0.12039873157089608, 0.3005492445618761, 0.14336766122328867, -0.015648503207577567, -0.03320087296333775, -0.022250958255816626, -0.028076473163617728]</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>2412.11531443863</v>
+        <v>3114.57819795262</v>
       </c>
     </row>
   </sheetData>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.07619538078985261</v>
+        <v>0.2320342873333915</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.03526147019816079</v>
+        <v>0.02942287167460559</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1277.344098339269</v>
+        <v>1335.211423619526</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -548,7 +548,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.9426205264714581</v>
+        <v>0.9034662691017518</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.7351859673637271</v>
+        <v>1.445066200792607</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.1284402896513369</v>
+        <v>0.1630795166765339</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>1251.315959288014</v>
+        <v>1283.820453173944</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>3.293109018887254</v>
+        <v>3.990806003010763</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.1977552539358225</v>
+        <v>-0.2493469831873077</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>1295.413611442116</v>
+        <v>1371.293811577869</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/cocoa-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/cocoa-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.1270677489023847, 0.01407320227541774, -0.023583423280028208, -0.03636233709291518, -0.020132132697509554, 0.13986758518615522, 0.2915726296741107, 0.11542258786841034, -0.03159626894232302, -0.04933331304323421, -0.04498490370191792, -0.035431340685390195, 0.12054742383987721, 0.31181244923280466, 0.14600027665712023, -0.027766217636002833, -0.04130700090871212, -0.03165066948884511, -0.03745504300189301]</t>
+    <t>[1.0, 0.12659801392715944, 0.012964859385988294, -0.024861606153344415, -0.037538340786715994, -0.020849437985720507, 0.13925338354901312, 0.2909496510151006, 0.11467813181256743, -0.03199967872744598, -0.05021818161594246, -0.045471915513467645, -0.03569855726553589, 0.12004018162210706, 0.31108107334952145, 0.14524462871693625, -0.028176057717056474, -0.04187974157321775, -0.03193568637929988, -0.03756239412689398]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.12764014829306458, 0.0231214840959658, -0.010963854123795289, -0.02507313930357516, -0.010162847849390217, 0.13934593352797273, 0.2785789244035398, 0.11529419977662246, -0.021699438177475838, -0.039085182332946944, -0.03588302392920051, -0.02594247419991514, 0.12039873157089608, 0.3005492445618761, 0.14336766122328867, -0.015648503207577567, -0.03320087296333775, -0.022250958255816626, -0.028076473163617728]</t>
+    <t>[0.9999999999999999, 0.12403499288319315, 0.015721475562531267, -0.020705187569092696, -0.033485573719376265, -0.017226652452552022, 0.1376975416491414, 0.2832238307515278, 0.11357661601956445, -0.026567293889660733, -0.04630152829326754, -0.04120205061633143, -0.03081530388543582, 0.11846509740561778, 0.3043226804168205, 0.14259217338675245, -0.022749345617106113, -0.03869660766932291, -0.026184827016304174, -0.032181740388883426]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.2320342873333915</v>
+        <v>0.2179356199638502</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.02942287167460559</v>
+        <v>1.084517857588632</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1335.211423619526</v>
+        <v>1335.125292586363</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>1.445066200792607</v>
+        <v>1.126529954553905</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.1630795166765339</v>
+        <v>4.077400978062738</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>1283.820453173944</v>
+        <v>1286.404987171449</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>3.990806003010763</v>
+        <v>2.946239134196051</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.2493469831873077</v>
+        <v>-4.537919863065801</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>1371.293811577869</v>
+        <v>1375.932037524403</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/cocoa-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/cocoa-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.12469860643600093, -0.007986538593533224, -0.023705101153806033, -0.03325757896208373, -0.03936881725877757, 0.12227293194616934, 0.2885390177102455, 0.10248060165950292, -0.040380284653323224, -0.05076767251480128, -0.04842226142938917, -0.04976053201702007, 0.11151686274460614, 0.3006340909372182, 0.13524344780302436, -0.04251255918619489, -0.04482008278630121, -0.029264327299123455, -0.04902406806156967]</t>
+    <t>[1.0, 0.1250755947006343, -0.006220958035794838, -0.02179810679630137, -0.031443926729890805, -0.037930929562663335, 0.1226935481085313, 0.2885840932616539, 0.10301226696570974, -0.039531350905854405, -0.04954548228505662, -0.047381127539237435, -0.04893331894029557, 0.11177809186989698, 0.3005717703972358, 0.1357518968706738, -0.0418467850464528, -0.04364448859338815, -0.02847051159053469, -0.048529177153476884]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.12252736223167096, -0.004600577393132018, -0.019727608243335245, -0.02995088624781805, -0.036209351518249326, 0.12103208888303255, 0.2801262533249702, 0.10134324374042798, -0.03515430437052094, -0.0470142299737316, -0.044838046050550806, -0.04502854948860568, 0.11021611155410893, 0.293695009048511, 0.13346833324876242, -0.03734785888224523, -0.04236944949428486, -0.02481764583050917, -0.04380737531952378]</t>
+    <t>[1.0, 0.1250680618342565, 0.0018539440310870795, -0.013001136826587526, -0.023230530999312656, -0.029455740570979754, 0.12225909724910684, 0.27648184230987344, 0.1024708061896736, -0.03173219154539911, -0.04207220093836153, -0.04093916574905838, -0.04087523861511522, 0.11113025422000913, 0.2909240146007749, 0.13405462017163144, -0.03214510635049886, -0.03810990976421786, -0.021784958296120243, -0.040602951735164206]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.04191053732991176</v>
+        <v>0.04468251151616323</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.933240186349951</v>
+        <v>0.03102332466603601</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1295.059417769923</v>
+        <v>1295.041088241587</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.1999708305715189</v>
+        <v>0.7960526171721864</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>2.468994657460306</v>
+        <v>0.133604303999067</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>1247.243112946984</v>
+        <v>1245.263572625828</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>2.964660494342569</v>
+        <v>3.515922037452919</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-4.896860473057587</v>
+        <v>-0.218894189237738</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>1337.051937799589</v>
+        <v>1334.305495654982</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/cocoa-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/cocoa-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.1250755947006343, -0.006220958035794838, -0.02179810679630137, -0.031443926729890805, -0.037930929562663335, 0.1226935481085313, 0.2885840932616539, 0.10301226696570974, -0.039531350905854405, -0.04954548228505662, -0.047381127539237435, -0.04893331894029557, 0.11177809186989698, 0.3005717703972358, 0.1357518968706738, -0.0418467850464528, -0.04364448859338815, -0.02847051159053469, -0.048529177153476884]</t>
+    <t>[0.9999999999999999, 0.12507559470063417, -0.0062209580357948146, -0.021798106796301373, -0.031443926729890805, -0.03793092956266334, 0.12269354810853128, 0.2885840932616538, 0.10301226696570977, -0.03953135090585438, -0.04954548228505659, -0.047381127539237414, -0.04893331894029555, 0.11177809186989697, 0.3005717703972357, 0.13575189687067382, -0.04184678504645279, -0.04364448859338816, -0.028470511590534677, -0.04852917715347689]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.1250680618342565, 0.0018539440310870795, -0.013001136826587526, -0.023230530999312656, -0.029455740570979754, 0.12225909724910684, 0.27648184230987344, 0.1024708061896736, -0.03173219154539911, -0.04207220093836153, -0.04093916574905838, -0.04087523861511522, 0.11113025422000913, 0.2909240146007749, 0.13405462017163144, -0.03214510635049886, -0.03810990976421786, -0.021784958296120243, -0.040602951735164206]</t>
+    <t>[1.0, 0.12506806183425656, 0.0018539440310870825, -0.01300113682658753, -0.023230530999312667, -0.029455740570979768, 0.12225909724910683, 0.2764818423098735, 0.1024708061896736, -0.03173219154539913, -0.042072200938361524, -0.04093916574905834, -0.04087523861511519, 0.11113025422000915, 0.29092401460077494, 0.13405462017163144, -0.032145106350498893, -0.038109909764217874, -0.021784958296120233, -0.040602951735164254]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.04468251151616323</v>
+        <v>0.04468251151616338</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.03102332466603601</v>
+        <v>0.03102332466603608</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -548,7 +548,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.9436755712906341</v>
+        <v>0.4855108461665839</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.7960526171721864</v>
+        <v>0.7960526171721869</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.133604303999067</v>
+        <v>0.1336043039990673</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>3.515922037452919</v>
+        <v>3.515922037452923</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.218894189237738</v>
+        <v>-0.2188941892377375</v>
       </c>
     </row>
     <row r="9" spans="1:2">
